--- a/final-main-table-columns.xlsx
+++ b/final-main-table-columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985F4C80-8872-4C7E-8CFF-6E6DF7934F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F26A3-847A-40DF-BE9F-634330684E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AE12D2C8-A53B-41A7-A1DF-2E10535864AF}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="SSDL schema" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Technical SSDL schema'!$A$1:$S$490</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4244,7 +4247,10 @@
   <dimension ref="A1:S490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4259,11 +4265,11 @@
     <col min="8" max="8" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.7265625" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.08984375" bestFit="1" customWidth="1"/>
@@ -4363,7 +4369,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I2">
-        <f>IF(P2 = "yes", 0, 1)</f>
+        <f>IF(TRIM(P2) = "yes", 0, 1)</f>
         <v>1</v>
       </c>
       <c r="J2" t="str">
@@ -4436,7 +4442,7 @@
         <v>HideEverywhere</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">IF(P3 = "yes", 0, 1)</f>
+        <f t="shared" ref="I3:I66" si="3">IF(TRIM(P3) = "yes", 0, 1)</f>
         <v>1</v>
       </c>
       <c r="J3" t="str">
@@ -7867,7 +7873,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="str">
         <f>IF('SSDL schema'!G52 = "", "", 'SSDL schema'!G52)</f>
@@ -8916,7 +8922,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="9">IF(P67 = "yes", 0, 1)</f>
+        <f t="shared" ref="I67:I130" si="9">IF(TRIM(P67) = "yes", 0, 1)</f>
         <v>1</v>
       </c>
       <c r="J67" t="str">
@@ -13396,7 +13402,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="15">IF(P131 = "yes", 0, 1)</f>
+        <f t="shared" ref="I131:I194" si="15">IF(TRIM(P131) = "yes", 0, 1)</f>
         <v>0</v>
       </c>
       <c r="J131" t="str">
@@ -17876,7 +17882,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="21">IF(P195 = "yes", 0, 1)</f>
+        <f t="shared" ref="I195:I258" si="21">IF(TRIM(P195) = "yes", 0, 1)</f>
         <v>0</v>
       </c>
       <c r="J195" t="str">
@@ -22356,7 +22362,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="27">IF(P259 = "yes", 0, 1)</f>
+        <f t="shared" ref="I259:I322" si="27">IF(TRIM(P259) = "yes", 0, 1)</f>
         <v>0</v>
       </c>
       <c r="J259" t="str">
@@ -26836,7 +26842,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="33">IF(P323 = "yes", 0, 1)</f>
+        <f t="shared" ref="I323:I386" si="33">IF(TRIM(P323) = "yes", 0, 1)</f>
         <v>0</v>
       </c>
       <c r="J323" t="str">
@@ -31316,7 +31322,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="39">IF(P387 = "yes", 0, 1)</f>
+        <f t="shared" ref="I387:I450" si="39">IF(TRIM(P387) = "yes", 0, 1)</f>
         <v>0</v>
       </c>
       <c r="J387" t="str">
@@ -35796,7 +35802,7 @@
         <v>ShowOnProjectSetupWorkflowUtilities</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451:I490" si="45">IF(P451 = "yes", 0, 1)</f>
+        <f t="shared" ref="I451:I490" si="45">IF(TRIM(P451) = "yes", 0, 1)</f>
         <v>0</v>
       </c>
       <c r="J451" t="str">
@@ -38563,6 +38569,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S490" xr:uid="{0AD7A694-DBD2-4DEF-8D9E-74E9B1B6CE03}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -39852,8 +39859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED2ED6-5E3A-4627-8916-1BD80432C142}">
   <dimension ref="A1:O495"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
